--- a/biology/Botanique/Stromanthe_tonckat/Stromanthe_tonckat.xlsx
+++ b/biology/Botanique/Stromanthe_tonckat/Stromanthe_tonckat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stromanthe tonckat est une espèce de plantes à fleurs de la famille des Marantaceae. C'est une plante herbacée néotropicale. 
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « MARANTA (Tonckat) radice nodosâ.
  Arundaſtrum Tonckat sett an. Rumph. Amboin 4. p. 22. t. 7 . »
 « Cette eſpèce croît dans les terreins humides de File de Caïenne &amp; de la Guiane. Elle ſert a faire des corbeilles &amp; des pagaras, eſpèce de paniers dans leſquels les Caraïbes renferment leurs petits meubles. »
